--- a/mechanical/development/platform/Extrusion_cuts.xlsx
+++ b/mechanical/development/platform/Extrusion_cuts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Cuts:</t>
   </si>
@@ -84,6 +84,18 @@
   </si>
   <si>
     <t>45.5 in</t>
+  </si>
+  <si>
+    <t>15.5 in</t>
+  </si>
+  <si>
+    <t>7.874 in</t>
+  </si>
+  <si>
+    <t>4.0 in</t>
+  </si>
+  <si>
+    <t>2 in</t>
   </si>
 </sst>
 </file>
@@ -134,11 +146,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,6 +607,77 @@
         <v>16</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1050</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>1012</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
